--- a/biology/Neurosciences/Pasko_Rakic/Pasko_Rakic.xlsx
+++ b/biology/Neurosciences/Pasko_Rakic/Pasko_Rakic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pasko Rakic (en serbo-croate: Paško Rakić), né le 15 mai 1933 à Ruma (Royaume de Yougoslavie, aujourd'hui en Serbie), est un neuroscientifique américain d'origine serbe et croate.
-Spécialisé dans le développement et l'évolution du cerveau humain, il a fondé le Département de neurobiologie de l'université Yale et l'a dirigé pendant 37 ans. Il a également été le fondateur et le directeur de l'Institut Kavli pour les neurosciences et a reçu le premier prix Kavli en neurosciences, conjointement avec Sten Grillner (en) et Thomas Jessell (en), « pour les découvertes sur la logique fonctionnelle des circuits neuronaux » (2008)[1].
+Spécialisé dans le développement et l'évolution du cerveau humain, il a fondé le Département de neurobiologie de l'université Yale et l'a dirigé pendant 37 ans. Il a également été le fondateur et le directeur de l'Institut Kavli pour les neurosciences et a reçu le premier prix Kavli en neurosciences, conjointement avec Sten Grillner (en) et Thomas Jessell (en), « pour les découvertes sur la logique fonctionnelle des circuits neuronaux » (2008).
 </t>
         </is>
       </c>
